--- a/src/main/resources/template/exports-xlsx/formations_template.xlsx
+++ b/src/main/resources/template/exports-xlsx/formations_template.xlsx
@@ -595,10 +595,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1"/>
-      <selection pane="bottomLeft" activeCell="W3" sqref="W3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
